--- a/biology/Zoologie/Acropora_nasuta/Acropora_nasuta.xlsx
+++ b/biology/Zoologie/Acropora_nasuta/Acropora_nasuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora nasuta est une espèce de coraux appartenant à la famille des Acroporidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce corail forme des colonies en corymbes irrégulières avec des branches secondaires allongées et effilées. Le corallite axial est tubulaire. Les corallites radiaux sont tubulaires, généralement disposés en rangées nettes et en forme narines, d'où le nom de l'espèce. Les pointes sont généralement rose, tirant parfois sur le bleu[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce corail forme des colonies en corymbes irrégulières avec des branches secondaires allongées et effilées. Le corallite axial est tubulaire. Les corallites radiaux sont tubulaires, généralement disposés en rangées nettes et en forme narines, d'où le nom de l'espèce. Les pointes sont généralement rose, tirant parfois sur le bleu.
 			Une colonie caractéristique
 			Gros plan sur les branches et les corallites.
 </t>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un corail commun dans tout l'Indo-Pacifique tropical, de la Mer Rouge à la Polynésie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un corail commun dans tout l'Indo-Pacifique tropical, de la Mer Rouge à la Polynésie.
 </t>
         </is>
       </c>
